--- a/data/questionnaires/version1/question_item.xlsx
+++ b/data/questionnaires/version1/question_item.xlsx
@@ -111,12 +111,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>CONSENT_INFO_SHEET_2_NO</t>
-  </si>
-  <si>
-    <t>CONSENT_INFO_SHEET_2_YES</t>
-  </si>
-  <si>
     <t>CONSENT_FUTURE_RESEARCH_YES</t>
   </si>
   <si>
@@ -256,6 +250,12 @@
   </si>
   <si>
     <t>exclusive</t>
+  </si>
+  <si>
+    <t>CONSENT_INFO_SHEET_YES</t>
+  </si>
+  <si>
+    <t>CONSENT_INFO_SHEET_NO</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -675,10 +675,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -709,10 +709,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -743,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -899,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -916,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -925,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -1098,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1106,16 +1106,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,16 +1123,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,16 +1140,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,16 +1157,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1211,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1279,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1313,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1330,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>24</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1381,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -1398,7 +1398,7 @@
         <v>26</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -1418,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1452,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1466,10 +1466,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1483,10 +1483,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1500,10 +1500,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1517,10 +1517,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D52">
         <v>2</v>

--- a/data/questionnaires/version1/question_item.xlsx
+++ b/data/questionnaires/version1/question_item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -135,9 +135,6 @@
     <t>FAMILY_BREAST_AFFECTED_NIECE</t>
   </si>
   <si>
-    <t>FAMILY_BREAST_AFFECTED_NONE</t>
-  </si>
-  <si>
     <t>FAMILY_BREAST_HOW_MANY_ONE</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>FAMILY_OVARIAN_AFFECTED_NIECE</t>
   </si>
   <si>
-    <t>FAMILY_OVARIAN_AFFECTED_NONE</t>
-  </si>
-  <si>
     <t>FAMILY_OVARIAN_HOW_MANY_ONE</t>
   </si>
   <si>
@@ -195,18 +189,6 @@
     <t>FAMILY_AFFECTED_HALFSISTER_SIDE_FATHER</t>
   </si>
   <si>
-    <t>FATHER_BREAST_CANCER_YES</t>
-  </si>
-  <si>
-    <t>FATHER_BREAST_CANCER_NO</t>
-  </si>
-  <si>
-    <t>BROTHER_BREAST_CANCER_YES</t>
-  </si>
-  <si>
-    <t>BROTHER_BREAST_CANCER_NO</t>
-  </si>
-  <si>
     <t>Sister</t>
   </si>
   <si>
@@ -219,9 +201,6 @@
     <t>Niece</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>One</t>
   </si>
   <si>
@@ -256,6 +235,24 @@
   </si>
   <si>
     <t>CONSENT_INFO_SHEET_NO</t>
+  </si>
+  <si>
+    <t>FAMILY_BREAST_AFFECTED_FATHER</t>
+  </si>
+  <si>
+    <t>FAMILY_BREAST_AFFECTED_BROTHER</t>
+  </si>
+  <si>
+    <t>FAMILY_OVARIAN_AFFECTED_UNKNOWN</t>
+  </si>
+  <si>
+    <t>FAMILY_BREAST_AFFECTED_UNKNOWN</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Brother</t>
   </si>
 </sst>
 </file>
@@ -291,14 +288,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -611,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -663,10 +657,10 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="b">
+      <c r="F2" s="12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -675,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -683,7 +677,7 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -700,7 +694,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -717,7 +711,7 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -769,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -820,180 +814,182 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="12">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
+      <c r="E12" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
+      <c r="B13" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>16</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>63</v>
+      <c r="E17" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>64</v>
+      <c r="E18" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>65</v>
+      <c r="E19" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>66</v>
+      <c r="E20" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>67</v>
+      <c r="E21" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1001,206 +997,206 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>68</v>
+      <c r="E22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>69</v>
+      <c r="E23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>51</v>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>70</v>
+      <c r="E24" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
+      <c r="B25" t="s">
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>71</v>
+      <c r="E25" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>53</v>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>54</v>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>56</v>
+      <c r="B29" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>57</v>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>58</v>
+      <c r="B31" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
+      <c r="B32" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="B33" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1208,16 +1204,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>27</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,16 +1221,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,16 +1238,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1259,16 +1255,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>33</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,16 +1272,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1293,16 +1289,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1310,16 +1306,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>34</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1327,16 +1323,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,16 +1340,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1361,16 +1357,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>35</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,16 +1374,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>35</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1395,19 +1391,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>35</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="15" t="b">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1415,16 +1408,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1432,16 +1425,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1449,84 +1445,50 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>36</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>59</v>
+      <c r="B49" t="s">
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>60</v>
+      <c r="B50" t="s">
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51">
-        <v>38</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52">
-        <v>38</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
